--- a/SchedulingData/dynamic12/pso/scheduling1_7.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_7.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.28</v>
+        <v>73.48</v>
       </c>
       <c r="E2" t="n">
-        <v>26.152</v>
+        <v>27.312</v>
       </c>
     </row>
     <row r="3">
@@ -485,112 +485,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>58.48</v>
+        <v>63.6</v>
       </c>
       <c r="E3" t="n">
-        <v>27.312</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58.48</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>113.18</v>
+        <v>42.36</v>
       </c>
       <c r="E4" t="n">
-        <v>24.952</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>42.36</v>
       </c>
       <c r="D5" t="n">
-        <v>88.5</v>
+        <v>102.46</v>
       </c>
       <c r="E5" t="n">
-        <v>27.28</v>
+        <v>22.564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2</v>
+        <v>88.5</v>
       </c>
       <c r="E6" t="n">
-        <v>25.38</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.6</v>
+        <v>47.54</v>
       </c>
       <c r="E7" t="n">
-        <v>25.84</v>
+        <v>26.436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53.6</v>
+        <v>88.5</v>
       </c>
       <c r="D8" t="n">
-        <v>108.5</v>
+        <v>134.34</v>
       </c>
       <c r="E8" t="n">
-        <v>22.48</v>
+        <v>24.316</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>88.5</v>
+        <v>134.34</v>
       </c>
       <c r="D9" t="n">
-        <v>130.3</v>
+        <v>194.86</v>
       </c>
       <c r="E9" t="n">
-        <v>23.74</v>
+        <v>20.884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>65.28</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.28</v>
+        <v>49.12</v>
       </c>
       <c r="E10" t="n">
-        <v>23.272</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>130.3</v>
+        <v>73.48</v>
       </c>
       <c r="D11" t="n">
-        <v>176.02</v>
+        <v>111.8</v>
       </c>
       <c r="E11" t="n">
-        <v>20.308</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108.5</v>
+        <v>49.12</v>
       </c>
       <c r="D12" t="n">
-        <v>172.72</v>
+        <v>111.26</v>
       </c>
       <c r="E12" t="n">
-        <v>20.148</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="D13" t="n">
-        <v>77.73999999999999</v>
+        <v>138.48</v>
       </c>
       <c r="E13" t="n">
-        <v>26.876</v>
+        <v>22.432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110.28</v>
+        <v>194.86</v>
       </c>
       <c r="D14" t="n">
-        <v>178.4</v>
+        <v>251.4</v>
       </c>
       <c r="E14" t="n">
-        <v>19.06</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="15">
@@ -717,127 +717,127 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>172.72</v>
+        <v>111.26</v>
       </c>
       <c r="D15" t="n">
-        <v>224.82</v>
+        <v>153.46</v>
       </c>
       <c r="E15" t="n">
-        <v>17.068</v>
+        <v>19.584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.2</v>
+        <v>47.54</v>
       </c>
       <c r="D16" t="n">
-        <v>88.36</v>
+        <v>110.04</v>
       </c>
       <c r="E16" t="n">
-        <v>23.004</v>
+        <v>21.816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>88.36</v>
+        <v>111.8</v>
       </c>
       <c r="D17" t="n">
-        <v>164.82</v>
+        <v>159.3</v>
       </c>
       <c r="E17" t="n">
-        <v>18.468</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>224.82</v>
+        <v>251.4</v>
       </c>
       <c r="D18" t="n">
-        <v>301.18</v>
+        <v>315.9</v>
       </c>
       <c r="E18" t="n">
-        <v>14.052</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>113.18</v>
+        <v>110.04</v>
       </c>
       <c r="D19" t="n">
-        <v>150.98</v>
+        <v>191.14</v>
       </c>
       <c r="E19" t="n">
-        <v>22.312</v>
+        <v>18.276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176.02</v>
+        <v>153.46</v>
       </c>
       <c r="D20" t="n">
-        <v>216.02</v>
+        <v>229.82</v>
       </c>
       <c r="E20" t="n">
-        <v>17.448</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>178.4</v>
+        <v>102.46</v>
       </c>
       <c r="D21" t="n">
-        <v>253.5</v>
+        <v>159.22</v>
       </c>
       <c r="E21" t="n">
-        <v>15.16</v>
+        <v>18.028</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>216.02</v>
+        <v>315.9</v>
       </c>
       <c r="D22" t="n">
-        <v>283.08</v>
+        <v>372.62</v>
       </c>
       <c r="E22" t="n">
-        <v>14.852</v>
+        <v>11.948</v>
       </c>
     </row>
     <row r="23">
@@ -865,112 +865,112 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>164.82</v>
+        <v>159.22</v>
       </c>
       <c r="D23" t="n">
-        <v>223.56</v>
+        <v>209</v>
       </c>
       <c r="E23" t="n">
-        <v>14.724</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>283.08</v>
+        <v>229.82</v>
       </c>
       <c r="D24" t="n">
-        <v>349.44</v>
+        <v>285.12</v>
       </c>
       <c r="E24" t="n">
-        <v>11.316</v>
+        <v>13.148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>301.18</v>
+        <v>159.3</v>
       </c>
       <c r="D25" t="n">
-        <v>347.02</v>
+        <v>203.36</v>
       </c>
       <c r="E25" t="n">
-        <v>11.088</v>
+        <v>18.204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>223.56</v>
+        <v>372.62</v>
       </c>
       <c r="D26" t="n">
-        <v>298.26</v>
+        <v>417.04</v>
       </c>
       <c r="E26" t="n">
-        <v>11.364</v>
+        <v>9.616</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>77.73999999999999</v>
+        <v>203.36</v>
       </c>
       <c r="D27" t="n">
-        <v>137.52</v>
+        <v>263.26</v>
       </c>
       <c r="E27" t="n">
-        <v>23.028</v>
+        <v>14.844</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>349.44</v>
+        <v>138.48</v>
       </c>
       <c r="D28" t="n">
-        <v>426.14</v>
+        <v>212.12</v>
       </c>
       <c r="E28" t="n">
-        <v>7.236</v>
+        <v>18.688</v>
       </c>
     </row>
     <row r="29">
@@ -979,112 +979,112 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>137.52</v>
+        <v>191.14</v>
       </c>
       <c r="D29" t="n">
-        <v>212.52</v>
+        <v>235.18</v>
       </c>
       <c r="E29" t="n">
-        <v>19.608</v>
+        <v>15.492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>298.26</v>
+        <v>235.18</v>
       </c>
       <c r="D30" t="n">
-        <v>349.98</v>
+        <v>290.28</v>
       </c>
       <c r="E30" t="n">
-        <v>8.811999999999999</v>
+        <v>12.612</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>253.5</v>
+        <v>212.12</v>
       </c>
       <c r="D31" t="n">
-        <v>297.56</v>
+        <v>266.8</v>
       </c>
       <c r="E31" t="n">
-        <v>11.884</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>212.52</v>
+        <v>266.8</v>
       </c>
       <c r="D32" t="n">
-        <v>306.54</v>
+        <v>301.3</v>
       </c>
       <c r="E32" t="n">
-        <v>16.776</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>150.98</v>
+        <v>209</v>
       </c>
       <c r="D33" t="n">
-        <v>198.02</v>
+        <v>266.16</v>
       </c>
       <c r="E33" t="n">
-        <v>18.748</v>
+        <v>11.584</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>198.02</v>
+        <v>266.16</v>
       </c>
       <c r="D34" t="n">
-        <v>251.82</v>
+        <v>317.08</v>
       </c>
       <c r="E34" t="n">
-        <v>16.468</v>
+        <v>8.112</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>349.98</v>
+        <v>317.08</v>
       </c>
       <c r="D35" t="n">
-        <v>399.18</v>
+        <v>396.3</v>
       </c>
       <c r="E35" t="n">
-        <v>6.492</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>251.82</v>
+        <v>290.28</v>
       </c>
       <c r="D36" t="n">
-        <v>287.86</v>
+        <v>339.98</v>
       </c>
       <c r="E36" t="n">
-        <v>13.504</v>
+        <v>9.752000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1131,74 +1131,74 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>297.56</v>
+        <v>263.26</v>
       </c>
       <c r="D37" t="n">
-        <v>345.68</v>
+        <v>335.06</v>
       </c>
       <c r="E37" t="n">
-        <v>8.692</v>
+        <v>10.764</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>287.86</v>
+        <v>339.98</v>
       </c>
       <c r="D38" t="n">
-        <v>348.24</v>
+        <v>395.82</v>
       </c>
       <c r="E38" t="n">
-        <v>10.096</v>
+        <v>6.788</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>348.24</v>
+        <v>285.12</v>
       </c>
       <c r="D39" t="n">
-        <v>407.38</v>
+        <v>315.28</v>
       </c>
       <c r="E39" t="n">
-        <v>7.312</v>
+        <v>10.772</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>306.54</v>
+        <v>315.28</v>
       </c>
       <c r="D40" t="n">
-        <v>348.08</v>
+        <v>373.98</v>
       </c>
       <c r="E40" t="n">
-        <v>13.752</v>
+        <v>8.492000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>345.68</v>
+        <v>335.06</v>
       </c>
       <c r="D41" t="n">
-        <v>401.6</v>
+        <v>384.66</v>
       </c>
       <c r="E41" t="n">
-        <v>5.22</v>
+        <v>8.404</v>
       </c>
     </row>
   </sheetData>
